--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B47C36D-A5E0-5D48-8E77-050A84E8489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F06E29-9FAA-F241-9765-7D75AB832908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Pokja</t>
   </si>
   <si>
-    <t>Biodata</t>
-  </si>
-  <si>
     <t>Anggota</t>
   </si>
   <si>
@@ -271,6 +268,18 @@
   </si>
   <si>
     <t>view, show, search</t>
+  </si>
+  <si>
+    <t>PPK</t>
+  </si>
+  <si>
+    <t>procurement-officer</t>
+  </si>
+  <si>
+    <t>workunit/:workunit/officer</t>
+  </si>
+  <si>
+    <t>Pegawai</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -705,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -931,16 +940,16 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
@@ -963,16 +972,16 @@
         <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -989,28 +998,31 @@
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
@@ -1021,22 +1033,22 @@
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -1053,22 +1065,22 @@
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -1076,10 +1088,42 @@
       <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="2" t="b">
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1090,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1144,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1174,7 +1218,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1185,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1196,7 +1240,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
@@ -1207,7 +1251,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1218,9 +1262,20 @@
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1272,7 +1327,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1280,7 +1335,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1288,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1296,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1306,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1339,7 +1394,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1350,7 +1405,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1361,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1372,7 +1427,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1383,7 +1438,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1391,10 +1446,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1402,10 +1457,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1413,10 +1468,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1424,10 +1479,10 @@
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1435,10 +1490,21 @@
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1485,7 +1551,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -1499,7 +1565,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -1513,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -1527,7 +1593,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -1541,7 +1607,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -1552,10 +1618,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -1566,10 +1632,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
@@ -1580,10 +1646,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -1594,10 +1660,10 @@
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -1608,12 +1674,26 @@
         <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F06E29-9FAA-F241-9765-7D75AB832908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28271800-D3A3-3044-A928-EA0E1FAB908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>layers</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>Dokumen</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>notifications</t>
   </si>
   <si>
-    <t>unsync</t>
-  </si>
-  <si>
     <t>space_dashboard</t>
   </si>
   <si>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>Pegawai</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>history</t>
   </si>
 </sst>
 </file>
@@ -674,25 +674,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +717,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -780,13 +780,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
@@ -803,25 +803,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>1</v>
@@ -835,25 +835,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4" t="b">
         <v>1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -876,13 +876,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -899,25 +899,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
@@ -931,25 +931,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
@@ -963,25 +963,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -995,25 +995,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
@@ -1030,25 +1030,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -1062,25 +1062,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -1094,25 +1094,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="b">
         <v>1</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1182,21 +1182,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1316,42 +1316,42 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1388,123 +1388,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -1657,13 +1657,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.sispada/modules/procurement/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28271800-D3A3-3044-A928-EA0E1FAB908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F573-AE78-9642-8E23-9FFE91617CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>module</t>
@@ -619,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -674,37 +671,34 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -736,13 +730,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -754,16 +748,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -771,25 +765,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="4" t="b">
         <v>1</v>
@@ -803,25 +797,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>1</v>
@@ -835,25 +829,25 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="b">
         <v>1</v>
@@ -867,25 +861,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="4" t="b">
         <v>1</v>
@@ -899,25 +893,25 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
@@ -931,25 +925,25 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
@@ -963,25 +957,25 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -995,25 +989,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
@@ -1022,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
@@ -1030,25 +1024,25 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -1062,25 +1056,25 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -1094,25 +1088,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -1121,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="b">
         <v>1</v>
@@ -1149,134 +1143,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1300,58 +1294,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1377,134 +1371,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1531,170 +1525,170 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/siasep.devapp/modules/procurement/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31F573-AE78-9642-8E23-9FFE91617CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116424B-B910-AB45-99D1-C422D7F01238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -240,21 +240,12 @@
     <t>deployed_code_account</t>
   </si>
   <si>
-    <t>ppk</t>
-  </si>
-  <si>
     <t>kasubag</t>
   </si>
   <si>
     <t>kabag</t>
   </si>
   <si>
-    <t>pokja</t>
-  </si>
-  <si>
-    <t>superadmin, administrator, ppk, kabag, kasubag, pokja</t>
-  </si>
-  <si>
     <t>superadmin, administrator, kabag, kasubag</t>
   </si>
   <si>
@@ -277,6 +268,12 @@
   </si>
   <si>
     <t>history</t>
+  </si>
+  <si>
+    <t>ppbj</t>
+  </si>
+  <si>
+    <t>superadmin, administrator, kabag, kasubag, ppbj</t>
   </si>
 </sst>
 </file>
@@ -616,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -815,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" s="4" t="b">
         <v>1</v>
@@ -992,13 +989,13 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>63</v>
@@ -1007,7 +1004,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
@@ -1027,10 +1024,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>54</v>
@@ -1182,7 +1179,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1234,7 +1231,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1280,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1337,15 +1334,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1347,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1388,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1399,7 +1388,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1410,7 +1399,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1421,7 +1410,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1432,7 +1421,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1443,7 +1432,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1454,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1462,10 +1451,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1476,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1487,7 +1476,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1498,7 +1487,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1510,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1545,7 +1534,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -1559,7 +1548,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -1573,7 +1562,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -1587,7 +1576,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -1601,7 +1590,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -1615,7 +1604,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -1629,7 +1618,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -1640,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1657,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1671,7 +1660,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1685,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiasep/modules/procurement/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116424B-B910-AB45-99D1-C422D7F01238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F1EDBF-CE9A-0A40-A877-ACB25D1D77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>superadmin, administrator, kabag, kasubag, ppbj</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>procurement-type</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>procurement-method</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
@@ -705,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -957,22 +972,22 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -989,31 +1004,28 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="b">
         <v>1</v>
@@ -1024,22 +1036,22 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -1056,28 +1068,31 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K11" s="2" t="b">
         <v>1</v>
@@ -1088,33 +1103,97 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="2" t="b">
+      <c r="K14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1125,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1220,7 +1299,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -1231,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1242,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1253,7 +1332,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -1264,9 +1343,31 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1344,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
@@ -1440,7 +1541,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
@@ -1451,7 +1552,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>69</v>
@@ -1462,7 +1563,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>69</v>
@@ -1473,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>69</v>
@@ -1484,9 +1585,31 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1497,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -1615,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
@@ -1629,7 +1752,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>69</v>
@@ -1643,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>69</v>
@@ -1657,7 +1780,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>69</v>
@@ -1671,12 +1794,40 @@
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
